--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/92/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/92/FD_Curve.xlsx
@@ -499,10 +499,10 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>4.30497</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>4304.97</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>4.67412</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>4674.12</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>4.87272</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>4872.72</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.85957</v>
+        <v>4.90262</v>
       </c>
       <c r="C9" t="n">
-        <v>7859.57</v>
+        <v>4902.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247924</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>8.750459999999999</v>
+        <v>4.90154</v>
       </c>
       <c r="C10" t="n">
-        <v>8750.459999999999</v>
+        <v>4901.54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278849</v>
+        <v>0.278893</v>
       </c>
       <c r="B11" t="n">
-        <v>9.42454</v>
+        <v>4.89916</v>
       </c>
       <c r="C11" t="n">
-        <v>9424.540000000001</v>
+        <v>4899.16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309774</v>
+        <v>0.309818</v>
       </c>
       <c r="B12" t="n">
-        <v>10.1169</v>
+        <v>4.89479</v>
       </c>
       <c r="C12" t="n">
-        <v>10116.9</v>
+        <v>4894.79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340743</v>
       </c>
       <c r="B13" t="n">
-        <v>10.5233</v>
+        <v>4.88923</v>
       </c>
       <c r="C13" t="n">
-        <v>10523.3</v>
+        <v>4889.23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371668</v>
       </c>
       <c r="B14" t="n">
-        <v>10.5198</v>
+        <v>4.88358</v>
       </c>
       <c r="C14" t="n">
-        <v>10519.8</v>
+        <v>4883.58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.402593</v>
       </c>
       <c r="B15" t="n">
-        <v>10.5015</v>
+        <v>4.87558</v>
       </c>
       <c r="C15" t="n">
-        <v>10501.5</v>
+        <v>4875.58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433518</v>
       </c>
       <c r="B16" t="n">
-        <v>10.4631</v>
+        <v>4.86847</v>
       </c>
       <c r="C16" t="n">
-        <v>10463.1</v>
+        <v>4868.47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.464443</v>
       </c>
       <c r="B17" t="n">
-        <v>10.4244</v>
+        <v>4.85933</v>
       </c>
       <c r="C17" t="n">
-        <v>10424.4</v>
+        <v>4859.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495368</v>
       </c>
       <c r="B18" t="n">
-        <v>10.3821</v>
+        <v>4.85058</v>
       </c>
       <c r="C18" t="n">
-        <v>10382.1</v>
+        <v>4850.58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.526293</v>
       </c>
       <c r="B19" t="n">
-        <v>10.3385</v>
+        <v>4.840770000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>10338.5</v>
+        <v>4840.77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>10.2921</v>
+        <v>4.83015</v>
       </c>
       <c r="C20" t="n">
-        <v>10292.1</v>
+        <v>4830.15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>10.2423</v>
+        <v>4.81912</v>
       </c>
       <c r="C21" t="n">
-        <v>10242.3</v>
+        <v>4819.12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>10.1852</v>
+        <v>4.806859999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>10185.2</v>
+        <v>4806.86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.6503139999999999</v>
+        <v>0.650358</v>
       </c>
       <c r="B23" t="n">
-        <v>10.1242</v>
+        <v>4.79434</v>
       </c>
       <c r="C23" t="n">
-        <v>10124.2</v>
+        <v>4794.34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>10.0579</v>
+        <v>4.78085</v>
       </c>
       <c r="C24" t="n">
-        <v>10057.9</v>
+        <v>4780.85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>9.987819999999999</v>
+        <v>4.766970000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>9987.82</v>
+        <v>4766.97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.74388</v>
       </c>
       <c r="B26" t="n">
-        <v>9.913489999999999</v>
+        <v>4.75239</v>
       </c>
       <c r="C26" t="n">
-        <v>9913.49</v>
+        <v>4752.39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.775057</v>
       </c>
       <c r="B27" t="n">
-        <v>9.836680000000001</v>
+        <v>4.73721</v>
       </c>
       <c r="C27" t="n">
-        <v>9836.68</v>
+        <v>4737.21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>9.753830000000001</v>
+        <v>4.72148</v>
       </c>
       <c r="C28" t="n">
-        <v>9753.83</v>
+        <v>4721.48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.837402</v>
       </c>
       <c r="B29" t="n">
-        <v>9.66883</v>
+        <v>4.70524</v>
       </c>
       <c r="C29" t="n">
-        <v>9668.83</v>
+        <v>4705.24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.868579</v>
       </c>
       <c r="B30" t="n">
-        <v>9.57681</v>
+        <v>4.68817</v>
       </c>
       <c r="C30" t="n">
-        <v>9576.809999999999</v>
+        <v>4688.17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899708</v>
+        <v>0.899752</v>
       </c>
       <c r="B31" t="n">
-        <v>9.483450000000001</v>
+        <v>4.67019</v>
       </c>
       <c r="C31" t="n">
-        <v>9483.450000000001</v>
+        <v>4670.19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>9.38297</v>
+        <v>4.65153</v>
       </c>
       <c r="C32" t="n">
-        <v>9382.969999999999</v>
+        <v>4651.53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>9.27936</v>
+        <v>4.63223</v>
       </c>
       <c r="C33" t="n">
-        <v>9279.360000000001</v>
+        <v>4632.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9932299999999999</v>
+        <v>0.993274</v>
       </c>
       <c r="B34" t="n">
-        <v>9.1709</v>
+        <v>4.61233</v>
       </c>
       <c r="C34" t="n">
-        <v>9170.9</v>
+        <v>4612.33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02454</v>
+        <v>1.02457</v>
       </c>
       <c r="B35" t="n">
-        <v>9.05691</v>
+        <v>4.591550000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>9056.91</v>
+        <v>4591.55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.0559</v>
+        <v>1.05595</v>
       </c>
       <c r="B36" t="n">
-        <v>10.1144</v>
+        <v>4.56982</v>
       </c>
       <c r="C36" t="n">
-        <v>10114.4</v>
+        <v>4569.82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08664</v>
+        <v>1.08733</v>
       </c>
       <c r="B37" t="n">
-        <v>4.93333</v>
+        <v>4.54718</v>
       </c>
       <c r="C37" t="n">
-        <v>4933.33</v>
+        <v>4547.18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11784</v>
+        <v>1.11872</v>
       </c>
       <c r="B38" t="n">
-        <v>7.22112</v>
+        <v>4.52372</v>
       </c>
       <c r="C38" t="n">
-        <v>7221.12</v>
+        <v>4523.72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14878</v>
+        <v>1.14986</v>
       </c>
       <c r="B39" t="n">
-        <v>8.300930000000001</v>
+        <v>4.49967</v>
       </c>
       <c r="C39" t="n">
-        <v>8300.93</v>
+        <v>4499.67</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17981</v>
+        <v>1.18084</v>
       </c>
       <c r="B40" t="n">
-        <v>8.585450000000002</v>
+        <v>4.47471</v>
       </c>
       <c r="C40" t="n">
-        <v>8585.450000000001</v>
+        <v>4474.71</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21077</v>
+        <v>1.21183</v>
       </c>
       <c r="B41" t="n">
-        <v>8.27866</v>
+        <v>4.44864</v>
       </c>
       <c r="C41" t="n">
-        <v>8278.66</v>
+        <v>4448.64</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24175</v>
+        <v>1.24292</v>
       </c>
       <c r="B42" t="n">
-        <v>8.282629999999999</v>
+        <v>4.42145</v>
       </c>
       <c r="C42" t="n">
-        <v>8282.629999999999</v>
+        <v>4421.45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27281</v>
+        <v>1.27385</v>
       </c>
       <c r="B43" t="n">
-        <v>8.162789999999999</v>
+        <v>4.39339</v>
       </c>
       <c r="C43" t="n">
-        <v>8162.79</v>
+        <v>4393.39</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30343</v>
+        <v>1.30493</v>
       </c>
       <c r="B44" t="n">
-        <v>8.0372</v>
+        <v>4.36425</v>
       </c>
       <c r="C44" t="n">
-        <v>8037.2</v>
+        <v>4364.25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33474</v>
+        <v>1.33576</v>
       </c>
       <c r="B45" t="n">
-        <v>7.91168</v>
+        <v>4.33433</v>
       </c>
       <c r="C45" t="n">
-        <v>7911.68</v>
+        <v>4334.33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36611</v>
+        <v>1.36698</v>
       </c>
       <c r="B46" t="n">
-        <v>7.84147</v>
+        <v>4.30285</v>
       </c>
       <c r="C46" t="n">
-        <v>7841.47</v>
+        <v>4302.85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39715</v>
+        <v>1.39773</v>
       </c>
       <c r="B47" t="n">
-        <v>7.56378</v>
+        <v>4.27043</v>
       </c>
       <c r="C47" t="n">
-        <v>7563.78</v>
+        <v>4270.43</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42821</v>
+        <v>1.42895</v>
       </c>
       <c r="B48" t="n">
-        <v>7.4444</v>
+        <v>4.2364</v>
       </c>
       <c r="C48" t="n">
-        <v>7444.4</v>
+        <v>4236.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45922</v>
+        <v>1.45985</v>
       </c>
       <c r="B49" t="n">
-        <v>7.277520000000001</v>
+        <v>4.20167</v>
       </c>
       <c r="C49" t="n">
-        <v>7277.52</v>
+        <v>4201.67</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49012</v>
+        <v>1.4909</v>
       </c>
       <c r="B50" t="n">
-        <v>7.19123</v>
+        <v>4.16533</v>
       </c>
       <c r="C50" t="n">
-        <v>7191.23</v>
+        <v>4165.33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52124</v>
+        <v>1.5219</v>
       </c>
       <c r="B51" t="n">
-        <v>6.98608</v>
+        <v>4.12764</v>
       </c>
       <c r="C51" t="n">
-        <v>6986.08</v>
+        <v>4127.64</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.552</v>
+        <v>1.55289</v>
       </c>
       <c r="B52" t="n">
-        <v>6.86594</v>
+        <v>4.08863</v>
       </c>
       <c r="C52" t="n">
-        <v>6865.94</v>
+        <v>4088.63</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58323</v>
+        <v>1.58392</v>
       </c>
       <c r="B53" t="n">
-        <v>6.71483</v>
+        <v>4.04828</v>
       </c>
       <c r="C53" t="n">
-        <v>6714.83</v>
+        <v>4048.28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61386</v>
+        <v>1.61482</v>
       </c>
       <c r="B54" t="n">
-        <v>6.57043</v>
+        <v>4.00701</v>
       </c>
       <c r="C54" t="n">
-        <v>6570.43</v>
+        <v>4007.01</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64521</v>
+        <v>1.64595</v>
       </c>
       <c r="B55" t="n">
-        <v>6.48172</v>
+        <v>3.96438</v>
       </c>
       <c r="C55" t="n">
-        <v>6481.72</v>
+        <v>3964.38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67607</v>
+        <v>1.67688</v>
       </c>
       <c r="B56" t="n">
-        <v>6.37039</v>
+        <v>3.92089</v>
       </c>
       <c r="C56" t="n">
-        <v>6370.39</v>
+        <v>3920.89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70704</v>
+        <v>1.70794</v>
       </c>
       <c r="B57" t="n">
-        <v>6.21824</v>
+        <v>3.87604</v>
       </c>
       <c r="C57" t="n">
-        <v>6218.24</v>
+        <v>3876.04</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73822</v>
+        <v>1.73887</v>
       </c>
       <c r="B58" t="n">
-        <v>6.12854</v>
+        <v>3.8304</v>
       </c>
       <c r="C58" t="n">
-        <v>6128.54</v>
+        <v>3830.4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76881</v>
+        <v>1.76985</v>
       </c>
       <c r="B59" t="n">
-        <v>6.00719</v>
+        <v>3.7838</v>
       </c>
       <c r="C59" t="n">
-        <v>6007.19</v>
+        <v>3783.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80009</v>
+        <v>1.80094</v>
       </c>
       <c r="B60" t="n">
-        <v>5.91375</v>
+        <v>3.73624</v>
       </c>
       <c r="C60" t="n">
-        <v>5913.75</v>
+        <v>3736.24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83122</v>
+        <v>1.83167</v>
       </c>
       <c r="B61" t="n">
-        <v>5.81263</v>
+        <v>3.68847</v>
       </c>
       <c r="C61" t="n">
-        <v>5812.63</v>
+        <v>3688.47</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86165</v>
+        <v>1.863</v>
       </c>
       <c r="B62" t="n">
-        <v>5.70546</v>
+        <v>3.6391</v>
       </c>
       <c r="C62" t="n">
-        <v>5705.46</v>
+        <v>3639.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89292</v>
+        <v>1.89365</v>
       </c>
       <c r="B63" t="n">
-        <v>5.64263</v>
+        <v>3.59012</v>
       </c>
       <c r="C63" t="n">
-        <v>5642.63</v>
+        <v>3590.12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92409</v>
+        <v>1.92494</v>
       </c>
       <c r="B64" t="n">
-        <v>5.54545</v>
+        <v>3.53973</v>
       </c>
       <c r="C64" t="n">
-        <v>5545.45</v>
+        <v>3539.73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95479</v>
+        <v>1.95593</v>
       </c>
       <c r="B65" t="n">
-        <v>5.49224</v>
+        <v>3.48969</v>
       </c>
       <c r="C65" t="n">
-        <v>5492.24</v>
+        <v>3489.69</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98567</v>
+        <v>1.98657</v>
       </c>
       <c r="B66" t="n">
-        <v>5.388560000000001</v>
+        <v>3.44005</v>
       </c>
       <c r="C66" t="n">
-        <v>5388.56</v>
+        <v>3440.05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01707</v>
+        <v>2.0182</v>
       </c>
       <c r="B67" t="n">
-        <v>5.337800000000001</v>
+        <v>3.38911</v>
       </c>
       <c r="C67" t="n">
-        <v>5337.8</v>
+        <v>3389.11</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04813</v>
+        <v>2.04896</v>
       </c>
       <c r="B68" t="n">
-        <v>5.256550000000001</v>
+        <v>3.33885</v>
       </c>
       <c r="C68" t="n">
-        <v>5256.55</v>
+        <v>3338.85</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07883</v>
+        <v>2.07962</v>
       </c>
       <c r="B69" t="n">
-        <v>5.23579</v>
+        <v>3.28867</v>
       </c>
       <c r="C69" t="n">
-        <v>5235.79</v>
+        <v>3288.67</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10943</v>
+        <v>2.11146</v>
       </c>
       <c r="B70" t="n">
-        <v>5.21489</v>
+        <v>3.2378</v>
       </c>
       <c r="C70" t="n">
-        <v>5214.89</v>
+        <v>3237.8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.1397</v>
+        <v>2.14186</v>
       </c>
       <c r="B71" t="n">
-        <v>5.22617</v>
+        <v>3.18863</v>
       </c>
       <c r="C71" t="n">
-        <v>5226.17</v>
+        <v>3188.63</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16995</v>
+        <v>2.17261</v>
       </c>
       <c r="B72" t="n">
-        <v>5.17359</v>
+        <v>3.14008</v>
       </c>
       <c r="C72" t="n">
-        <v>5173.59</v>
+        <v>3140.08</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20236</v>
+        <v>2.20427</v>
       </c>
       <c r="B73" t="n">
-        <v>5.16893</v>
+        <v>3.09045</v>
       </c>
       <c r="C73" t="n">
-        <v>5168.93</v>
+        <v>3090.45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23428</v>
+        <v>2.23499</v>
       </c>
       <c r="B74" t="n">
-        <v>5.17582</v>
+        <v>3.04244</v>
       </c>
       <c r="C74" t="n">
-        <v>5175.82</v>
+        <v>3042.44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26502</v>
+        <v>2.26571</v>
       </c>
       <c r="B75" t="n">
-        <v>5.1559</v>
+        <v>2.99585</v>
       </c>
       <c r="C75" t="n">
-        <v>5155.9</v>
+        <v>2995.85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29574</v>
+        <v>2.297</v>
       </c>
       <c r="B76" t="n">
-        <v>5.130500000000001</v>
+        <v>2.94856</v>
       </c>
       <c r="C76" t="n">
-        <v>5130.5</v>
+        <v>2948.56</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32646</v>
+        <v>2.32809</v>
       </c>
       <c r="B77" t="n">
-        <v>5.10119</v>
+        <v>2.90204</v>
       </c>
       <c r="C77" t="n">
-        <v>5101.19</v>
+        <v>2902.04</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35718</v>
+        <v>2.35917</v>
       </c>
       <c r="B78" t="n">
-        <v>5.06705</v>
+        <v>2.85734</v>
       </c>
       <c r="C78" t="n">
-        <v>5067.05</v>
+        <v>2857.34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.3879</v>
+        <v>2.38963</v>
       </c>
       <c r="B79" t="n">
-        <v>5.02062</v>
+        <v>2.81448</v>
       </c>
       <c r="C79" t="n">
-        <v>5020.62</v>
+        <v>2814.48</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41865</v>
+        <v>2.42113</v>
       </c>
       <c r="B80" t="n">
-        <v>4.988770000000001</v>
+        <v>2.77162</v>
       </c>
       <c r="C80" t="n">
-        <v>4988.77</v>
+        <v>2771.62</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44752</v>
+        <v>2.45187</v>
       </c>
       <c r="B81" t="n">
-        <v>4.97925</v>
+        <v>2.7319</v>
       </c>
       <c r="C81" t="n">
-        <v>4979.25</v>
+        <v>2731.9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.4757</v>
+        <v>2.48387</v>
       </c>
       <c r="B82" t="n">
-        <v>4.94176</v>
+        <v>2.69253</v>
       </c>
       <c r="C82" t="n">
-        <v>4941.76</v>
+        <v>2692.53</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50386</v>
+        <v>2.51587</v>
       </c>
       <c r="B83" t="n">
-        <v>4.89729</v>
+        <v>2.65428</v>
       </c>
       <c r="C83" t="n">
-        <v>4897.29</v>
+        <v>2654.28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53202</v>
+        <v>2.54787</v>
       </c>
       <c r="B84" t="n">
-        <v>4.89345</v>
+        <v>2.61733</v>
       </c>
       <c r="C84" t="n">
-        <v>4893.45</v>
+        <v>2617.33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56032</v>
+        <v>2.57987</v>
       </c>
       <c r="B85" t="n">
-        <v>4.85134</v>
+        <v>2.5814</v>
       </c>
       <c r="C85" t="n">
-        <v>4851.34</v>
+        <v>2581.4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.5941</v>
+        <v>2.61101</v>
       </c>
       <c r="B86" t="n">
-        <v>4.82688</v>
+        <v>2.54645</v>
       </c>
       <c r="C86" t="n">
-        <v>4826.88</v>
+        <v>2546.45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.62926</v>
+        <v>2.64088</v>
       </c>
       <c r="B87" t="n">
-        <v>4.78783</v>
+        <v>2.51335</v>
       </c>
       <c r="C87" t="n">
-        <v>4787.83</v>
+        <v>2513.35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66442</v>
+        <v>2.67074</v>
       </c>
       <c r="B88" t="n">
-        <v>4.76607</v>
+        <v>2.48227</v>
       </c>
       <c r="C88" t="n">
-        <v>4766.07</v>
+        <v>2482.27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69687</v>
+        <v>2.70061</v>
       </c>
       <c r="B89" t="n">
-        <v>4.72097</v>
+        <v>2.45231</v>
       </c>
       <c r="C89" t="n">
-        <v>4720.97</v>
+        <v>2452.31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72888</v>
+        <v>2.73048</v>
       </c>
       <c r="B90" t="n">
-        <v>4.69789</v>
+        <v>2.42353</v>
       </c>
       <c r="C90" t="n">
-        <v>4697.89</v>
+        <v>2423.53</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76089</v>
+        <v>2.75857</v>
       </c>
       <c r="B91" t="n">
-        <v>4.671600000000001</v>
+        <v>2.39616</v>
       </c>
       <c r="C91" t="n">
-        <v>4671.6</v>
+        <v>2396.16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79288</v>
+        <v>2.7898</v>
       </c>
       <c r="B92" t="n">
-        <v>4.64674</v>
+        <v>2.37152</v>
       </c>
       <c r="C92" t="n">
-        <v>4646.74</v>
+        <v>2371.52</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82488</v>
+        <v>2.81938</v>
       </c>
       <c r="B93" t="n">
-        <v>4.61391</v>
+        <v>2.35334</v>
       </c>
       <c r="C93" t="n">
-        <v>4613.91</v>
+        <v>2353.34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85688</v>
+        <v>2.85458</v>
       </c>
       <c r="B94" t="n">
-        <v>4.59421</v>
+        <v>2.33818</v>
       </c>
       <c r="C94" t="n">
-        <v>4594.21</v>
+        <v>2338.18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88888</v>
+        <v>2.88673</v>
       </c>
       <c r="B95" t="n">
-        <v>4.55875</v>
+        <v>2.32762</v>
       </c>
       <c r="C95" t="n">
-        <v>4558.75</v>
+        <v>2327.62</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92088</v>
+        <v>2.91873</v>
       </c>
       <c r="B96" t="n">
-        <v>4.53498</v>
+        <v>2.31815</v>
       </c>
       <c r="C96" t="n">
-        <v>4534.98</v>
+        <v>2318.15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95288</v>
+        <v>2.95073</v>
       </c>
       <c r="B97" t="n">
-        <v>4.5105</v>
+        <v>2.31091</v>
       </c>
       <c r="C97" t="n">
-        <v>4510.5</v>
+        <v>2310.91</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98263</v>
+        <v>2.98273</v>
       </c>
       <c r="B98" t="n">
-        <v>4.480189999999999</v>
+        <v>2.29736</v>
       </c>
       <c r="C98" t="n">
-        <v>4480.19</v>
+        <v>2297.36</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01158</v>
+        <v>3.01473</v>
       </c>
       <c r="B99" t="n">
-        <v>4.44812</v>
+        <v>2.28699</v>
       </c>
       <c r="C99" t="n">
-        <v>4448.12</v>
+        <v>2286.99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04038</v>
+        <v>3.04673</v>
       </c>
       <c r="B100" t="n">
-        <v>4.40837</v>
+        <v>2.27736</v>
       </c>
       <c r="C100" t="n">
-        <v>4408.37</v>
+        <v>2277.36</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06918</v>
+        <v>3.07873</v>
       </c>
       <c r="B101" t="n">
-        <v>4.39613</v>
+        <v>2.26706</v>
       </c>
       <c r="C101" t="n">
-        <v>4396.13</v>
+        <v>2267.06</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09798</v>
+        <v>3.10808</v>
       </c>
       <c r="B102" t="n">
-        <v>4.383520000000001</v>
+        <v>2.25563</v>
       </c>
       <c r="C102" t="n">
-        <v>4383.52</v>
+        <v>2255.63</v>
       </c>
     </row>
   </sheetData>
